--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279521.6881202352</v>
+        <v>276820.4714687787</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.155295256393322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>237.9688518868388</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>124.0182950532139</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.0889948692418</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>65.77030295285029</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>74.55949692544515</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>124.2990919523462</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863699</v>
+        <v>99.30025118863695</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.312012538743065</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>125.0879365565772</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713905</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698459</v>
@@ -1029,10 +1029,10 @@
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>158.7608692779873</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>85.82538108525345</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643621</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>73.22143907485071</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>340.4983069408989</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.90616225919203</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.61308234942881</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>165.0084189131209</v>
+        <v>315.3998342615245</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>24.14662204184555</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>121.8320355299029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>30.05706037504467</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819332</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428584</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.02467705292054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>120.7871326503944</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>143.4157347120548</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>19.88691958258267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G25" t="n">
-        <v>20.38427178198018</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>35.41770597126612</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983388</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>63.69463930750848</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503963</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>275.3300239197263</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611472359</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880067</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428129</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.0438072739749</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>574.0438072739749</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>307.6661507067969</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>307.6661507067969</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>300.438579740743</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672986</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.421463841153</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.421463841153</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V2" t="n">
-        <v>840.421463841153</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W2" t="n">
-        <v>840.421463841153</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X2" t="n">
-        <v>840.421463841153</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="Y2" t="n">
-        <v>574.0438072739749</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>357.7057562811269</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>183.2527269999999</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>34.31831733874859</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,49 +4410,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742824</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460808</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="X3" t="n">
-        <v>565.4660550460808</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.7057562811269</v>
+        <v>190.7335740917564</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.696204039846</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>487.696204039846</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>337.5795646275102</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
         <v>21.0971104001205</v>
@@ -4489,19 +4489,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640393</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U4" t="n">
-        <v>754.073860607024</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>754.073860607024</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>487.696204039846</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>487.696204039846</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>487.696204039846</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>576.5707977935892</v>
+        <v>821.8262933957172</v>
       </c>
       <c r="C5" t="n">
-        <v>576.5707977935892</v>
+        <v>821.8262933957172</v>
       </c>
       <c r="D5" t="n">
-        <v>576.5707977935892</v>
+        <v>463.5605947889667</v>
       </c>
       <c r="E5" t="n">
-        <v>576.5707977935892</v>
+        <v>463.5605947889667</v>
       </c>
       <c r="F5" t="n">
-        <v>569.6252970443858</v>
+        <v>456.6150940397633</v>
       </c>
       <c r="G5" t="n">
         <v>444.0706587086825</v>
@@ -4562,55 +4562,55 @@
         <v>130.9983022541607</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J5" t="n">
-        <v>93.7664115927505</v>
+        <v>93.76641159275187</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245557</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825627</v>
+        <v>456.1499114825637</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748852</v>
+        <v>729.4041931748864</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.69382320238</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798411</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.53548218941</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.09944339824</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="V5" t="n">
-        <v>950.0365560546692</v>
+        <v>1203.688023918154</v>
       </c>
       <c r="W5" t="n">
-        <v>950.0365560546692</v>
+        <v>1203.688023918154</v>
       </c>
       <c r="X5" t="n">
-        <v>576.5707977935892</v>
+        <v>830.2222656570739</v>
       </c>
       <c r="Y5" t="n">
-        <v>576.5707977935892</v>
+        <v>821.8262933957172</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292.0033913256656</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="C6" t="n">
-        <v>292.0033913256656</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="D6" t="n">
-        <v>292.0033913256656</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="E6" t="n">
-        <v>292.0033913256656</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="F6" t="n">
-        <v>292.0033913256656</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>129.0120768548631</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878733</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563407</v>
+        <v>49.4420610756342</v>
       </c>
       <c r="K6" t="n">
-        <v>180.983551651651</v>
+        <v>388.9600665101432</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830027</v>
+        <v>583.4554103414951</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537483</v>
+        <v>829.7791710122408</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259704</v>
+        <v>1097.031033584463</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891489</v>
+        <v>1319.294480749982</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090177</v>
+        <v>1478.34742594867</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.34668675797</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152066</v>
+        <v>1390.282497655819</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.97363070375</v>
+        <v>1194.377855207503</v>
       </c>
       <c r="U6" t="n">
-        <v>961.852547024354</v>
+        <v>1034.013340785294</v>
       </c>
       <c r="V6" t="n">
-        <v>961.852547024354</v>
+        <v>798.8612325535514</v>
       </c>
       <c r="W6" t="n">
-        <v>707.6151902961524</v>
+        <v>544.6238758253498</v>
       </c>
       <c r="X6" t="n">
-        <v>499.7636900906195</v>
+        <v>336.772375619817</v>
       </c>
       <c r="Y6" t="n">
-        <v>292.0033913256656</v>
+        <v>129.0120768548631</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>495.8037825893364</v>
+        <v>117.3873223517531</v>
       </c>
       <c r="C7" t="n">
-        <v>495.8037825893364</v>
+        <v>117.3873223517531</v>
       </c>
       <c r="D7" t="n">
-        <v>495.8037825893364</v>
+        <v>117.3873223517531</v>
       </c>
       <c r="E7" t="n">
-        <v>347.8906890069433</v>
+        <v>117.3873223517531</v>
       </c>
       <c r="F7" t="n">
-        <v>201.000741509033</v>
+        <v>117.3873223517531</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709668</v>
+        <v>117.3873223517531</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709668</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709668</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523444</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223266</v>
+        <v>157.4322756223267</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830387</v>
+        <v>375.1387655830389</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388148</v>
+        <v>615.0688576388152</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974819</v>
+        <v>854.7285647974824</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.86649040274</v>
+        <v>1113.866490402741</v>
       </c>
       <c r="S7" t="n">
-        <v>1039.905440832184</v>
+        <v>1113.866490402741</v>
       </c>
       <c r="T7" t="n">
-        <v>1039.905440832184</v>
+        <v>889.2012322792858</v>
       </c>
       <c r="U7" t="n">
-        <v>1039.905440832184</v>
+        <v>600.0613614556573</v>
       </c>
       <c r="V7" t="n">
-        <v>785.220952626297</v>
+        <v>345.3768732497705</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8037825893364</v>
+        <v>345.3768732497705</v>
       </c>
       <c r="X7" t="n">
-        <v>495.8037825893364</v>
+        <v>117.3873223517531</v>
       </c>
       <c r="Y7" t="n">
-        <v>495.8037825893364</v>
+        <v>117.3873223517531</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4835,19 +4835,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918766</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1545.062936918766</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.12525314008</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4884,16 +4884,16 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429757</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744474</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
         <v>1884.562538506775</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.0543138529669</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>623.11813092506</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>473.0014915127243</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1591.38240052962</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1591.38240052962</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1591.38240052962</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1302.264063033458</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1302.264063033458</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1012.846892996497</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>1012.846892996497</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>792.0543138529669</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1838.258984403687</v>
+        <v>1872.090169197694</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784373</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1195.238779417687</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793782</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706892</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479995</v>
@@ -5063,28 +5063,28 @@
         <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926742</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
         <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.463914704701</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.998156443621</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.858824467809</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
         <v>193.8410919870413</v>
@@ -5127,19 +5127,19 @@
         <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>996.4574081599343</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720356</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.180957052879</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2401.180957052879</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>925.516358754737</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424012</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600081</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620977</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.169024664815</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742809</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742809</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>2137.362968742809</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>2014.300306591392</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1724.883136554431</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>1496.893585656414</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512883</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5282,22 +5282,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.2677182139844</v>
+        <v>513.8536007400754</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121685</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121685</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121685</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.9161830442241</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703116</v>
+        <v>513.8536007400687</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703116</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>695.5020655703116</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>547.588971987919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782928</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038313</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797715</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703084</v>
       </c>
     </row>
     <row r="20">
@@ -5744,40 +5744,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273902</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792909</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958733</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,7 +5932,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261131</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.9745311434716</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>701.0383482155647</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D25" t="n">
-        <v>550.921708803229</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E25" t="n">
-        <v>403.0086152208358</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F25" t="n">
-        <v>256.1186677229255</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557278</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278209</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859675</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778174</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,19 +6622,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2199.770229732631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1910.695003076829</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,7 +6880,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6938,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406112</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,46 +7166,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123002</v>
@@ -7217,7 +7217,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797742</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121649</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121649</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121649</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7649,10 +7649,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270439</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637022</v>
+        <v>34.43939438637014</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>21.56058953000678</v>
+        <v>231.6378772658572</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241561</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>200.2644728578866</v>
+        <v>49.87305750948303</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>130.3056077939251</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>188.5275929770501</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864541</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>183.5599762991743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823348</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.005313310876445</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3599015160452</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459287</v>
       </c>
       <c r="G25" t="n">
-        <v>145.1398665102887</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>145.6085800303785</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393004</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.7108110197798</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823153</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>10.85445046951787</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.59566540674</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194259</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>961515.1770319003</v>
+        <v>961515.1770319002</v>
       </c>
     </row>
     <row r="6">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234784</v>
+        <v>329665.1599234783</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="J2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="J2" t="n">
-        <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605026</v>
@@ -26350,10 +26350,10 @@
         <v>363215.9698605027</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657062</v>
+        <v>132804.2190657067</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929384</v>
+        <v>265413.0723929378</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545773</v>
+        <v>313577.1573545775</v>
       </c>
       <c r="F3" t="n">
         <v>189308.2687704287</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417407</v>
+        <v>30877.42926417421</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204958</v>
+        <v>65018.34502049568</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273077</v>
+        <v>81897.40371273083</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202363</v>
+        <v>49839.57413202352</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>213528.7967230446</v>
+        <v>213528.7967230445</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
@@ -26427,37 +26427,37 @@
         <v>9841.725762122358</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.144321768934</v>
+      </c>
+      <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="G4" t="n">
-        <v>9947.14432176891</v>
-      </c>
       <c r="H4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768901</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768883</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768883</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768918</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667488</v>
+        <v>72593.65038667493</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738567</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-623104.9536872363</v>
       </c>
       <c r="C6" t="n">
-        <v>-49457.86973649828</v>
+        <v>-49457.86973649867</v>
       </c>
       <c r="D6" t="n">
-        <v>-126812.4588010778</v>
+        <v>-126812.4588010771</v>
       </c>
       <c r="E6" t="n">
-        <v>-78891.20826060692</v>
+        <v>-79112.33957458194</v>
       </c>
       <c r="F6" t="n">
-        <v>62838.02694439796</v>
+        <v>62803.28901896224</v>
       </c>
       <c r="G6" t="n">
-        <v>252146.2957148266</v>
+        <v>252111.5577893909</v>
       </c>
       <c r="H6" t="n">
-        <v>252146.2957148265</v>
+        <v>252111.557789391</v>
       </c>
       <c r="I6" t="n">
-        <v>252146.2957148267</v>
+        <v>252111.557789391</v>
       </c>
       <c r="J6" t="n">
-        <v>183147.1412957124</v>
+        <v>183112.4033702769</v>
       </c>
       <c r="K6" t="n">
-        <v>221268.8664506527</v>
+        <v>221234.1285252168</v>
       </c>
       <c r="L6" t="n">
-        <v>187127.9506943309</v>
+        <v>187093.2127688953</v>
       </c>
       <c r="M6" t="n">
-        <v>170248.8920020959</v>
+        <v>170214.1540766601</v>
       </c>
       <c r="N6" t="n">
-        <v>202306.7215828031</v>
+        <v>202271.9836573674</v>
       </c>
       <c r="O6" t="n">
-        <v>252146.2957148267</v>
+        <v>252111.5577893909</v>
       </c>
       <c r="P6" t="n">
-        <v>252146.2957148267</v>
+        <v>252111.5577893909</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695743</v>
+        <v>717.3319511695746</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154305</v>
+        <v>383.6877278154311</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000959</v>
+        <v>103.2769374000962</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479651</v>
+        <v>216.7329409479646</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974114</v>
       </c>
       <c r="F3" t="n">
         <v>165.7342631267231</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139242</v>
+        <v>119.9738478139248</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139243</v>
+        <v>119.9738478139248</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846083</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139242</v>
+        <v>119.9738478139248</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>399.7207504853181</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776173</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,10 +27430,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>148.2690867692148</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>42.51488859665339</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>144.5560855861591</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>138.9488612907435</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6991335772323</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>288.1198990254237</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>377.9259261173105</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>10.71264018336299</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951733</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713863</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>67.07900356461451</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>64.90096112310671</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643578</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>128.2521204311039</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.73963171515464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137.5278003873771</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>56.94449007014481</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.051798896398395e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-2.955857780762017e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88374653736512</v>
+        <v>2.883746537365122</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579055</v>
+        <v>29.53316922579056</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756931</v>
+        <v>244.7543826756932</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023587</v>
+        <v>366.8233736023589</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952467</v>
+        <v>455.0768316952469</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791136</v>
+        <v>506.3606591791138</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284023</v>
+        <v>514.5541040284025</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974778</v>
+        <v>485.8788493974781</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562763</v>
+        <v>414.6863567562766</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868879</v>
+        <v>311.412183886888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277619</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020775</v>
+        <v>65.71337422020778</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892096</v>
+        <v>0.2306997229892097</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
         <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189772</v>
+        <v>53.12316808189775</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862623</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453794</v>
+        <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438658</v>
+        <v>335.014323043866</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874179</v>
+        <v>390.9459133874181</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189112</v>
+        <v>401.2930884189114</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348669</v>
+        <v>367.1047769348671</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190654</v>
+        <v>294.6339480190655</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739556</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392923</v>
+        <v>95.79765189392927</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399194</v>
+        <v>28.65944163399195</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989042</v>
+        <v>6.219132670989046</v>
       </c>
       <c r="U6" t="n">
         <v>0.101509238373053</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572052</v>
+        <v>38.90055892572055</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402915</v>
+        <v>91.4539440040292</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545446</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773274</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022533</v>
+        <v>197.9483399022534</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669597</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
         <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565103</v>
+        <v>58.16268574565106</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101759</v>
+        <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060652</v>
+        <v>5.526983886060655</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864672</v>
+        <v>0.07055724109864675</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>250.1980451314294</v>
       </c>
       <c r="N12" t="n">
         <v>672.5632370340505</v>
@@ -31856,13 +31856,13 @@
         <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.7767623746036</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,22 +32312,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>752.2150000824579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>752.2150000824579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900682</v>
+        <v>63.70847814900694</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573782</v>
+        <v>146.7335225573784</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252594</v>
+        <v>219.3104167252596</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518408</v>
+        <v>276.0144259518411</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318114</v>
+        <v>285.1410404318116</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757911</v>
+        <v>255.7806379757913</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010068</v>
+        <v>183.453361001007</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243839</v>
+        <v>89.10649401243856</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959558</v>
+        <v>18.93640691959567</v>
       </c>
       <c r="K6" t="n">
-        <v>132.8701925010272</v>
+        <v>342.9474802368777</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639916</v>
+        <v>196.4599432639918</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653996</v>
+        <v>248.8118794653998</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355779</v>
+        <v>269.9513763355781</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904225</v>
+        <v>224.5085324904227</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047351</v>
+        <v>160.6595406047352</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237831</v>
+        <v>56.97321748793416</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142345</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.9055454148608</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391679</v>
+        <v>242.353628339168</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814819</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809994</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491133</v>
+        <v>22.15508137491138</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P9" t="n">
         <v>568.1422977634695</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>108.0640112094111</v>
       </c>
       <c r="N12" t="n">
         <v>541.2215249507173</v>
@@ -35504,13 +35504,13 @@
         <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.7949882885821</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>620.8732879991246</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629504</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066259</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>620.8732879991246</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191314</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
